--- a/biology/Médecine/Pandémie_de_Covid-19_en_Mauritanie/Pandémie_de_Covid-19_en_Mauritanie.xlsx
+++ b/biology/Médecine/Pandémie_de_Covid-19_en_Mauritanie/Pandémie_de_Covid-19_en_Mauritanie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Mauritanie</t>
+          <t>Pandémie_de_Covid-19_en_Mauritanie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La pandémie de Covid-19 est une crise sanitaire majeure provoquée par une maladie infectieuse émergente apparue fin 2019 en Chine continentale, la maladie à coronavirus 2019, dont l'agent pathogène est le SARS-CoV-2. Ce virus est à l'origine d'une pandémie[note 1], déclarée le 11 mars 2020 par l'Organisation mondiale de la santé.
 La pandémie de Covid-19 en Mauritanie démarre officiellement le 13 mars 2020. À la date du 7 octobre 2022, le bilan est de 995 morts.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Mauritanie</t>
+          <t>Pandémie_de_Covid-19_en_Mauritanie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,17 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier cas est constaté le 13 mars 2020[2], suivi par le premier décès le 30 mars[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier cas est constaté le 13 mars 2020, suivi par le premier décès le 30 mars.
 Le cap des 10 cas est dépassé le 13 mai 2020. Le nombre de cas est de 15.
-Le cap des 100 cas est dépassé le 19 mai 2020. Le nombre de cas est de 131[4].
+Le cap des 100 cas est dépassé le 19 mai 2020. Le nombre de cas est de 131.
 Le cap des 10 morts est dépassé le 26 mai 2020. Le nombre de décès est de 13.
-Le cap des 1 000 cas est dépassé le 7 juin 2020. Le nombre de cas est de 1 049[5].
+Le cap des 1 000 cas est dépassé le 7 juin 2020. Le nombre de cas est de 1 049.
 Le cap des 100 morts est dépassé le 19 juin 2020. Le nombre de décès est de 102.
-Le cap des 10 000 cas est dépassé le 9 décembre 2020. Le nombre de cas est de 10 105[6].
+Le cap des 10 000 cas est dépassé le 9 décembre 2020. Le nombre de cas est de 10 105.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Mauritanie</t>
+          <t>Pandémie_de_Covid-19_en_Mauritanie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,6 +564,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pand%C3%A9mie_de_Covid-19_en_Mauritanie</t>
+          <t>Pandémie_de_Covid-19_en_Mauritanie</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pandémie de Covid-19 en Afrique</t>
         </is>
